--- a/ReportExport-2024-12-01_2024-12-31.xlsx
+++ b/ReportExport-2024-12-01_2024-12-31.xlsx
@@ -13,33 +13,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Project Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comforta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Work Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Itwaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonny Bazirakye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Work Hour Log Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksey Dedyukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLW (FleetHours/Absence Planner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Working Process. : Daily Issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Working Process : Daily Meeting and Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects Support : Sprint FH-2024-25 ( 2024-11-27 ) :: [ TTLFH-4620 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleet Hours : NextGen : ExportActivityGroup : Investigation :: [ TTLFH-4629 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleet Hours : Next Gen : Activities Import : POIs :: [ TTLFH-4633 ]</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date 01.12.2024</t>
@@ -53,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -88,16 +112,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="191970"/>
       <name val="Calibri"/>
     </font>
@@ -132,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
@@ -146,37 +160,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -191,9 +191,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -201,58 +203,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45628</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45628</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45628</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45628</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>10</v>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45628</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
